--- a/micrograft/Jagatsinghpur/data.xlsx
+++ b/micrograft/Jagatsinghpur/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prem\Eubix\eubix\micrograft\Jagatsinghpur\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9727CFF5-39DA-4A51-A25B-15A6AAC20CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
   <si>
     <t>Route Code</t>
   </si>
@@ -321,169 +327,448 @@
     <t>Tirtol-Jagatsinghpur (Jogadhari Bus stand)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jasobantpur Katha Pola- Alipingal Bazar - Ekasudha Chhaka -Patenigaon Jorakula- Sabhamula Upara Palasa Chhaka-Kantilo Trinath Temple-Gelapur Bridge -Rohia patna chhak-</t>
-  </si>
-  <si>
-    <t>Jagatsinghpur Collectorate -SVM College-Charipolia Chhaka -Punanga High School- Janakoti GP office Chhak-Kula Tartanga School 
+    <t xml:space="preserve">Via- Balikuda College Chhak  -Dengapole Bazar  -Dihasahi Chhak  </t>
+  </si>
+  <si>
+    <t>Via- Balia Store - Tarikund Bazar - Charipolia Bazar - College Chhak</t>
+  </si>
+  <si>
+    <t>Via- Ibrisingh Chhak - Tandikul (Iswareswar Temple) Tulanga( Bolar Bazar) - Katara Bazar - Gadibrahma Bidyapitha (Kaduapada-Dihasahi)</t>
+  </si>
+  <si>
+    <t>Via- Kujanga Bazar - Taladanda - Pankapal - Rahama - Tirtol Bazar - Sarala Road - Jaipur Chhak - Jagatsinghpur Municipality</t>
+  </si>
+  <si>
+    <t>Via- Alanahat (Mahira Road) -  Bahaliasahi Chhak -  Biju Pattanaik  College (Ashrampatna Chhak) - Galupada Chhak – Jagatsinghpur Municipality Chhak</t>
+  </si>
+  <si>
+    <t>Via- Tarpur Market – Redhuahat - Radhangabad - Kendriyabidyalaya Chhak - Jagatsinghpur Municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via- Sadeipur Chhak - Palasole - Gandhi Chhak - Jagatsinghpur Municipality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via- Tirtol Market - Sarala Road - Jaipur Chhak - Kendriya Vidyalaya Chhak - Jagatsinghpur Municipality </t>
+  </si>
+  <si>
+    <t>Via- Jasobantpur Katha Pola- Alipingal Bazar - Ekasudha Chhaka -Patenigaon Jorakula- Sabhamula Upara Palasa Chhaka-Kantilo Trinath Temple-Gelapur Bridge -Rohia patna chhak-</t>
+  </si>
+  <si>
+    <t>Via- Jagatsinghpur Collectorate -SVM College-Charipolia Chhaka -Punanga High School- Janakoti GP office Chhak-Kula Tartanga School 
 Chhak-Mandasahi CHC-</t>
   </si>
   <si>
-    <t>Jagatsinghpur -Collectorate-Sani Temple Chhaka-Gopal Village Chhaka-Kakudi Khandia Chhaka-Samanga Chhaka-Brahmana Khanda Village-Sana Lahanga Village-Singarpur Melan Padia-Nuapola Chhaka-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jagatsinghpur Collectorate-Pakanpur Chhaka-Gumutipur Chhak-Pothapada Chhaka-Samantarapur Chhaka-Odisho Panichhatra Padia-Jota Chhaka-Puran Chhaka-Puruna Gada-Nagamatha Chhaka - Tumbaandei Sahi </t>
-  </si>
-  <si>
-    <t>Jagatsinghpur Collectorate-Purohitpur chhaka-Nandamani gada-Alasudha chhaka-Kokilapur village-Kanpur Village Chhaka-Neepur village-</t>
-  </si>
-  <si>
-    <t>Ambasala Chaka-Machhagaon Bazar-Khalagan Mahavir Mandir Chaka-Apandara Hata-Balipatana Hata Padia-Naharana Chaka-Marichipur Bazar-</t>
-  </si>
-  <si>
-    <t>Badarodanga Jagannath Mandir-Borikina Bazar-Paladhuabandha Bazar-Basanta Chaka-Brahmandih Teli Chaka-Tentulibelari Hata-</t>
-  </si>
-  <si>
-    <t>Block Chaka-Gaithapur Bazar chaka-Rahan Bazar-Diagan Chaka-Anantapur Melan Padia-</t>
-  </si>
-  <si>
-    <t>Nagapur  Jagulai Chaka-Kulaupara Bazar-Jaigan Chka-Aliha Chaka-</t>
-  </si>
-  <si>
-    <t>Bhoda Chaka-Kalio Bazar-Sangrampur Chaka-Chanarapur Bazar-Dengapol Bazar-Khankarpur-</t>
-  </si>
-  <si>
-    <t>15 no pola-Kanpur Chaka-Adhanga Bazar-Asilo Chaka-</t>
-  </si>
-  <si>
-    <t>Tahasil Chhaka-Gopalpur College Chhaka-Madhuri Bazar-Dengapola
+    <t>Via- Jagatsinghpur -Collectorate-Sani Temple Chhaka-Gopal Village Chhaka-Kakudi Khandia Chhaka-Samanga Chhaka-Brahmana Khanda Village-Sana Lahanga Village-Singarpur Melan Padia-Nuapola Chhaka-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via- Jagatsinghpur Collectorate-Pakanpur Chhaka-Gumutipur Chhak-Pothapada Chhaka-Samantarapur Chhaka-Odisho Panichhatra Padia-Jota Chhaka-Puran Chhaka-Puruna Gada-Nagamatha Chhaka - Tumbaandei Sahi </t>
+  </si>
+  <si>
+    <t>Via- Jagatsinghpur Collectorate-Purohitpur chhaka-Nandamani gada-Alasudha chhaka-Kokilapur village-Kanpur Village Chhaka-Neepur village-</t>
+  </si>
+  <si>
+    <t>Via- Ambasala Chaka-Machhagaon Bazar-Khalagan Mahavir Mandir Chaka-Apandara Hata-Balipatana Hata Padia-Naharana Chaka-Marichipur Bazar-</t>
+  </si>
+  <si>
+    <t>Via- Badarodanga Jagannath Mandir-Borikina Bazar-Paladhuabandha Bazar-Basanta Chaka-Brahmandih Teli Chaka-Tentulibelari Hata-</t>
+  </si>
+  <si>
+    <t>Via- Block Chaka-Gaithapur Bazar chaka-Rahan Bazar-Diagan Chaka-Anantapur Melan Padia-</t>
+  </si>
+  <si>
+    <t>Via-Nagapur  Jagulai Chaka-Kulaupara Bazar-Jaigan Chka-Aliha Chaka-</t>
+  </si>
+  <si>
+    <t>Via- Bhoda Chaka-Kalio Bazar-Sangrampur Chaka-Chanarapur Bazar-Dengapol Bazar-Khankarpur-</t>
+  </si>
+  <si>
+    <t>Via-15 no pola-Kanpur Chaka-Adhanga Bazar-Asilo Chaka-</t>
+  </si>
+  <si>
+    <t>Via-Tahasil Chhaka-Gopalpur College Chhaka-Madhuri Bazar-Dengapola
 Chhaka-Baigani Bazar-Janatakothi Bazar-tandikula-mahadei brahmapur-Mulugaon Bazar-Dadara hata-</t>
   </si>
   <si>
-    <t>Dogachia bazar-Balia stand-Balia store/Anakhia-saraswata school-Bridge chaka near alka high school-Akhandalamani near alka college-</t>
-  </si>
-  <si>
-    <t>Hajipur Chhaka-Hajipur Panchayat office Chhaka-Sankari Sahi Bridge CHHaka-Manguli panchayat office-Ukundara hata-Gandhi chhaka/Baipada-Nailo-Baredia Pala Mandap/Galepur Nadi Bandha-Puran gp office-</t>
-  </si>
-  <si>
-    <t>Kadambamula Chaka-Talpatak-Barhapur-Osta Chhak-Adhanga Haat-Adhanga Medical Chhak-OAV-Sadheikana Chhaka-Sibapur Medical Chhaka-Kantuara-</t>
-  </si>
-  <si>
-    <t>Biridi Chhak-Ranipada-Chunu padia chhak-Alando Panchayat office-Patipur-Railway Station -</t>
-  </si>
-  <si>
-    <t>Kandara pokhari Nuagaon-Ananda Bazar-Gatanatha-Uttara Sasana Panchayat Office-Kanak sundari Chhaka-Dulla devi Chhaka-Sahabad-Salijanga-</t>
-  </si>
-  <si>
-    <t>Ibirising Chhaka- Paida G P Office Chhaka-Pokhariapada Chhaka-Gobindpur Sandha Chhaka- Janakadeipur G P Office Chhaka-Goda High School Chhaka - Aunri Chhaka-Gadaharishpur-</t>
-  </si>
-  <si>
-    <t>Jireilo GP Office Chhaka-Ambiki Hata Chhaka- Gadabishnupur High School Chhaka-Khatikoloda Chhaka-Durgapur Chhaka-Olarahata Chhaka-Padampur G P Office Chhaka -</t>
-  </si>
-  <si>
-    <t>Erasama Medical Chhaka-Japa GP  Office Chhaka - Baleipur GP Office Chhaka-Punjabi Chhaka-Balithuta Chhaka- Gadakujanga Kunjabihari Mandira Chhaka-Nuagaon Chhaka- Gobindpur Chhaka-</t>
-  </si>
-  <si>
-    <t>Erasama  Block Chhaka- Kothi Chhaka- Ibrisingh Chhaka- Hajipur Chhaka - Somapur Chhaka Champahat Chhaka-Ghodadia Chhaka-</t>
-  </si>
-  <si>
-    <t>Erasama Block Chhaka- Pallikanta Chhaka- Iribina Chhaka-Nuadihi GP Chhaka Malipur Medical Chhaka-  Kidingiri Chhaka - Bhitarandhari GP Office Chhaka - Kanaguli Chhaka -</t>
-  </si>
-  <si>
-    <t>Sandhapur-Zillanasi GP Hqr-Taladanda-Choudhurygada -Pathuria-Pankapal-Badapal-Chanddapur-Teramanapur-Rahama - Gobardhanpur MCS -Khosalpur-SampurChhaka-Dhabaleswar High School -Sarali- Hansura-Dhabaleswar High School -</t>
-  </si>
-  <si>
-    <t>Balarampur Gada-Santara Gada-Hasina gada-15no- Bhutamundai -Barei-Singitali-Pipalgada-Chakradharpur-Paradeepgarh-Nuagarhpola-Dochhaki - Gate bazar-Kathagada-Pitambarpur-Narendrapur-Koldia-Biswali-Nunukua-Kothi-Siju-</t>
-  </si>
-  <si>
-    <t>Patra Chhaka-Bipin BabuChhaka-Samagola-Gopiakuda &amp; Gada-Sahu Bazar Chhaka-Malahunka-Kharigotha-Tarenigada-fatepur-Janata High  School-Birabar Samanta College-</t>
-  </si>
-  <si>
-    <t>Bagoi-Sandhapur-Taladanda-Choudhurygada -Pathuria-Badapal-Pankapal-Garei-Kothamula-Gavadi-Okla-Chandapat Chhaka-Bhramarkola-Khurda sahi,- Potanai Medical &amp; halt-Janhapal-Pankapal-Teramanapur gada-Bali  sahi-Nabadaya school-Chhotibar-Sailo&amp; pola-Meena Bazar-Podakanthi-Adhankura-Mathasahi-Gauda sahi-Pandua-Pandua -Hatikena-</t>
-  </si>
-  <si>
-    <t>Bagoi gada-Sandhapur-Taladanda-Choudhurygada -Pathuria-Badapal-Pankapal-Chandapur-Rahama Bazar-Talapada chhaka- Gai guhala pola-Talapada chhaka-Makar Padia-Gangadharpur-Raigana-Sarikhi-Banito-Dagarapada-Banito-</t>
-  </si>
-  <si>
-    <t>Patra Chhaka-Bipin babu chhaka -Badanga Mangala Mandir chhaka-Nabadia-Bagoi chhaka-Panapali-Kanjiakanachhaka-Babughar Balia-Patapur-Kartutha-Tentulia-Ranipada-Baorikhi-Reypur bali patna-Paikasta-Pahana-Janhapal-Pankapal-Pathuria-Agapal High School-Pathuria pira thakur-</t>
-  </si>
-  <si>
-    <t>Ghodansha-Dantual-Naugaon Sudhakanti/   Palasahi Chhak-Naugaon GP Office - Bahaliasahi / Gajarjpur GP Office - Devidola Bazar-Galdhari-</t>
-  </si>
-  <si>
-    <t>Naugaon Village Alana Jagannath Temple-Bachhalo GP Office -Narashima- Panchapa-Rohia High School Ananta pur -- Korania School- Arakhkuda Jatrapadia--Harishpur-Mugei Chhak-ChandakhapatanaSri Jagannsth College -</t>
-  </si>
-  <si>
-    <t>KokidhiaChandpuraTentoiBandhaMundaGangadaTiruna GPDahipala ChakaDeopadaChakulia padaKantunia hata</t>
-  </si>
-  <si>
-    <t>Sikhar Ghat-Sareikula-Bodal-Salijang matha-Angeswarpada high schoo -Osakana Chhak -Garei Matha -Mahanapari-</t>
-  </si>
-  <si>
-    <t>Tahasil Chhak-Govt .PS.Birat Katak-Baragol GP office-Biswanathpur Chhaka-Dhanipur Chhaka (GP-Jaisol)-</t>
-  </si>
-  <si>
-    <t>Basanta Chhaka, Dharadharpur-Baigudi Chhaka, Sadeipur-Panda Chhaka, Adheikul-Redhua College  Chhaka-Radhanga Chhaka-</t>
-  </si>
-  <si>
-    <t>Tirtol Bus stand-Thanagada chaka(Jadtira GP)-Manijanga-Nuapokhari chaka,Bodhei- Nalapola chaka-Ibrisingh GP(Via Narua chaka) - PHC Narua-Utareswari Thakurani chaka-</t>
-  </si>
-  <si>
-    <t>Tartol Market- Posal chaka/Sankheswar park chaka-Dainlo Baya College chaka Dainlo GP-Kilipal Digabareni chaka (kanimul GP)-Indrani  chaka (Manapur)-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sarala Temple-Dalia chaka -Katara Medical chaka-Mahilo chaka-</t>
-  </si>
-  <si>
-    <t>Hostelgada(Tirtol NH)-Pipalmadhav-Near Panchasakha High school-Abua matha-Near Govindpur GP office-</t>
-  </si>
-  <si>
-    <t>Trinath Bazar- Tentulipada GP-Mulisingh Sahara hata chaka near Sarala Temple-Abdul Rahim High School Rasalpur-Biritol GP-</t>
-  </si>
-  <si>
-    <t>Tartol chaka-Porgadei-Kolar PHC chaka-Ambiri GP -Blaspur chaka-Samantarapur GP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via- Balikuda College Chhak  -Dengapole Bazar  -Dihasahi Chhak  </t>
-  </si>
-  <si>
-    <t>Via- Balia Store - Tarikund Bazar - Charipolia Bazar - College Chhak</t>
-  </si>
-  <si>
-    <t>Via- Ibrisingh Chhak - Tandikul (Iswareswar Temple) Tulanga( Bolar Bazar) - Katara Bazar - Gadibrahma Bidyapitha (Kaduapada-Dihasahi)</t>
-  </si>
-  <si>
-    <t>Via- Kujanga Bazar - Taladanda - Pankapal - Rahama - Tirtol Bazar - Sarala Road - Jaipur Chhak - Jagatsinghpur Municipality</t>
-  </si>
-  <si>
-    <t>Via- Alanahat (Mahira Road) -  Bahaliasahi Chhak -  Biju Pattanaik  College (Ashrampatna Chhak) - Galupada Chhak – Jagatsinghpur Municipality Chhak</t>
-  </si>
-  <si>
-    <t>Via- Tarpur Market – Redhuahat - Radhangabad - Kendriyabidyalaya Chhak - Jagatsinghpur Municipality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via- Sadeipur Chhak - Palasole - Gandhi Chhak - Jagatsinghpur Municipality </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via- Tirtol Market - Sarala Road - Jaipur Chhak - Kendriya Vidyalaya Chhak - Jagatsinghpur Municipality </t>
+    <t>Via- Dogachia bazar-Balia stand-Balia store/Anakhia-saraswata school-Bridge chaka near alka high school-Akhandalamani near alka college-</t>
+  </si>
+  <si>
+    <t>Via- Hajipur Chhaka-Hajipur Panchayat office Chhaka-Sankari Sahi Bridge CHHaka-Manguli panchayat office-Ukundara hata-Gandhi chhaka/Baipada-Nailo-Baredia Pala Mandap/Galepur Nadi Bandha-Puran gp office-</t>
+  </si>
+  <si>
+    <t>Via- Kadambamula Chaka-Talpatak-Barhapur-Osta Chhak-Adhanga Haat-Adhanga Medical Chhak-OAV-Sadheikana Chhaka-Sibapur Medical Chhaka-Kantuara-</t>
+  </si>
+  <si>
+    <t>Via- Biridi Chhak-Ranipada-Chunu padia chhak-Alando Panchayat office-Patipur-Railway Station -</t>
+  </si>
+  <si>
+    <t>Via- Kandara pokhari Nuagaon-Ananda Bazar-Gatanatha-Uttara Sasana Panchayat Office-Kanak sundari Chhaka-Dulla devi Chhaka-Sahabad-Salijanga-</t>
+  </si>
+  <si>
+    <t>Via- Ibirising Chhaka- Paida G P Office Chhaka-Pokhariapada Chhaka-Gobindpur Sandha Chhaka- Janakadeipur G P Office Chhaka-Goda High School Chhaka - Aunri Chhaka-Gadaharishpur-</t>
+  </si>
+  <si>
+    <t>Via- Jireilo GP Office Chhaka-Ambiki Hata Chhaka- Gadabishnupur High School Chhaka-Khatikoloda Chhaka-Durgapur Chhaka-Olarahata Chhaka-Padampur G P Office Chhaka -</t>
+  </si>
+  <si>
+    <t>Via- Erasama Medical Chhaka-Japa GP  Office Chhaka - Baleipur GP Office Chhaka-Punjabi Chhaka-Balithuta Chhaka- Gadakujanga Kunjabihari Mandira Chhaka-Nuagaon Chhaka- Gobindpur Chhaka-</t>
+  </si>
+  <si>
+    <t>Via- Erasama  Block Chhaka- Kothi Chhaka- Ibrisingh Chhaka- Hajipur Chhaka - Somapur Chhaka Champahat Chhaka-Ghodadia Chhaka-</t>
+  </si>
+  <si>
+    <t>Via- Erasama Block Chhaka- Pallikanta Chhaka- Iribina Chhaka-Nuadihi GP Chhaka Malipur Medical Chhaka-  Kidingiri Chhaka - Bhitarandhari GP Office Chhaka - Kanaguli Chhaka -</t>
+  </si>
+  <si>
+    <t>Via- Sandhapur-Zillanasi GP Hqr-Taladanda-Choudhurygada -Pathuria-Pankapal-Badapal-Chanddapur-Teramanapur-Rahama - Gobardhanpur MCS -Khosalpur-SampurChhaka-Dhabaleswar High School -Sarali- Hansura-Dhabaleswar High School -</t>
+  </si>
+  <si>
+    <t>Via- Balarampur Gada-Santara Gada-Hasina gada-15no- Bhutamundai -Barei-Singitali-Pipalgada-Chakradharpur-Paradeepgarh-Nuagarhpola-Dochhaki - Gate bazar-Kathagada-Pitambarpur-Narendrapur-Koldia-Biswali-Nunukua-Kothi-Siju-</t>
+  </si>
+  <si>
+    <t>Via- Patra Chhaka-Bipin BabuChhaka-Samagola-Gopiakuda &amp; Gada-Sahu Bazar Chhaka-Malahunka-Kharigotha-Tarenigada-fatepur-Janata High  School-Birabar Samanta College-</t>
+  </si>
+  <si>
+    <t>Via- Bagoi-Sandhapur-Taladanda-Choudhurygada -Pathuria-Badapal-Pankapal-Garei-Kothamula-Gavadi-Okla-Chandapat Chhaka-Bhramarkola-Khurda sahi,- Potanai Medical &amp; halt-Janhapal-Pankapal-Teramanapur gada-Bali  sahi-Nabadaya school-Chhotibar-Sailo&amp; pola-Meena Bazar-Podakanthi-Adhankura-Mathasahi-Gauda sahi-Pandua-Pandua -Hatikena-</t>
+  </si>
+  <si>
+    <t>Via- Bagoi gada-Sandhapur-Taladanda-Choudhurygada -Pathuria-Badapal-Pankapal-Chandapur-Rahama Bazar-Talapada chhaka- Gai guhala pola-Talapada chhaka-Makar Padia-Gangadharpur-Raigana-Sarikhi-Banito-Dagarapada-Banito-</t>
+  </si>
+  <si>
+    <t>Via- Patra Chhaka-Bipin babu chhaka -Badanga Mangala Mandir chhaka-Nabadia-Bagoi chhaka-Panapali-Kanjiakanachhaka-Babughar Balia-Patapur-Kartutha-Tentulia-Ranipada-Baorikhi-Reypur bali patna-Paikasta-Pahana-Janhapal-Pankapal-Pathuria-Agapal High School-Pathuria pira thakur-</t>
+  </si>
+  <si>
+    <t>Via- Ghodansha-Dantual-Naugaon Sudhakanti/   Palasahi Chhak-Naugaon GP Office - Bahaliasahi / Gajarjpur GP Office - Devidola Bazar-Galdhari-</t>
+  </si>
+  <si>
+    <t>Via- Naugaon Village Alana Jagannath Temple-Bachhalo GP Office -Narashima- Panchapa-Rohia High School Ananta pur -- Korania School- Arakhkuda Jatrapadia--Harishpur-Mugei Chhak-ChandakhapatanaSri Jagannsth College -</t>
+  </si>
+  <si>
+    <t>Via- Kokidhia-Chandpura-Tentoi-BandhaMunda/Gangada-Tiruna GP-Dahipala Chaka-Deopada-Chakulia pada-Kantunia hata-Polytechnic College-Mundalo</t>
+  </si>
+  <si>
+    <t>Via- Sikhar Ghat-Sareikula-Bodal-Salijang matha-Angeswarpada high schoo -Osakana Chhak -Garei Matha -Mahanapari-</t>
+  </si>
+  <si>
+    <t>Via- Tahasil Chhak-Govt .PS.Birat Katak-Baragol GP office-Biswanathpur Chhaka-Dhanipur Chhaka (GP-Jaisol)-</t>
+  </si>
+  <si>
+    <t>Via- Basanta Chhaka, Dharadharpur-Baigudi Chhaka, Sadeipur-Panda Chhaka, Adheikul-Redhua College  Chhaka-Radhanga Chhaka-</t>
+  </si>
+  <si>
+    <t>Via- Tirtol Bus stand-Thanagada chaka(Jadtira GP)-Manijanga-Nuapokhari chaka,Bodhei- Nalapola chaka-Ibrisingh GP(Via Narua chaka) - PHC Narua-Utareswari Thakurani chaka-</t>
+  </si>
+  <si>
+    <t>Via- Tartol Market- Posal chaka/Sankheswar park chaka-Dainlo Baya College chaka Dainlo GP-Kilipal Digabareni chaka (kanimul GP)-Indrani  chaka (Manapur)-</t>
+  </si>
+  <si>
+    <t>Via-  Sarala Temple-Dalia chaka -Katara Medical chaka-Mahilo chaka-</t>
+  </si>
+  <si>
+    <t>Via- Hostelgada(Tirtol NH)-Pipalmadhav-Near Panchasakha High school-Abua matha-Near Govindpur GP office-</t>
+  </si>
+  <si>
+    <t>Via- Trinath Bazar- Tentulipada GP-Mulisingh Sahara hata chaka near Sarala Temple-Abdul Rahim High School Rasalpur-Biritol GP-</t>
+  </si>
+  <si>
+    <t>Via- Tartol chaka-Porgadei-Kolar PHC chaka-Ambiri GP -Blaspur chaka-Samantarapur GP-</t>
+  </si>
+  <si>
+    <t>ଜଗତସିଂହପୁର-ସତ୍ୟପ୍ରିୟା ଛକ (ବିରବର ପାଟଣା)</t>
+  </si>
+  <si>
+    <t>ଜଗତସିଂହପୁର-ଯାହାନପୁର</t>
+  </si>
+  <si>
+    <t>ଜଗତସିଂହପୁର-ମଧୂସୁଦନପୁର ଶାସନ</t>
+  </si>
+  <si>
+    <t>ଜଗତସିଂହପୁର-ମହିରା ୟୁପି ସ୍କୁଲ</t>
+  </si>
+  <si>
+    <t>ଜଗତସିଂହପୁର-ସିଧଳ ଜଗନ୍ନାଥ ମନ୍ଦିର</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ବନ୍ଦର</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ନରେନ୍ଦ୍ର ଛକ</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ବାହାକନ ଛକ</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ବନମ୍ବର ଗଡି</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-କୃଷ୍ଣଦାଶପୁର ଜିପି ଅଫିସ</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ତରାସାହି</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ବାଲିକୁଦା-ସାହାଡା ପୋଲ</t>
+  </si>
+  <si>
+    <t>ବିରିଡି-ବାଗଲପୁର ବନ୍ଧ</t>
+  </si>
+  <si>
+    <t>ବିରିଡି-ମଇନ୍ଦିପୁର ପାର୍କ ଛକ</t>
+  </si>
+  <si>
+    <t>ବିରିଡି-ଅରଣା</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ବିରିଡି-ବେଲେଶ୍ୱରପୁର ମଲ୍ଲିକ ସାହି </t>
+  </si>
+  <si>
+    <t>ବିରିଡି-ସଠିଭୁନି ଛକ/କଳନ୍ତିରା</t>
+  </si>
+  <si>
+    <t>ଏରସମା ନୂଆ ବସଷ୍ଟାଣ୍ଡ-ସରବନ୍ତ ମନ୍ଦିର ଛକ</t>
+  </si>
+  <si>
+    <t>ଏରସମା ନୂଆ ବସଷ୍ଟାଣ୍ଡ-ରାମତରା ଛକ</t>
+  </si>
+  <si>
+    <t>ଏରସମା ନୂଆ ବସ୍ ଷ୍ଟାଣ୍ଡ-ଢ଼ିଙ୍କିଆ</t>
+  </si>
+  <si>
+    <t>ଏରସମା ନୂଆ ବସ୍ ଷ୍ଟାଣ୍ଡ-ଟିକରପଡ଼ା ଛକ</t>
+  </si>
+  <si>
+    <t>ଏରସମା ନୂଆ ବସ୍ ଷ୍ଟାଣ୍ଡ-କୁଞ୍ଜକୋଟି</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ସାନ ବାଲିକଣି ପ୍ରାଥମିକ ସ୍କୁଲ</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ବଗଦିଆ ସ୍କୁଲ</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ମଙ୍ଗରାଜପୁର ଜିପି ଅଫିସ</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ପଣ୍ଡୁଆ ହାଇସ୍କୁଲ</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ଗୋରଡ଼</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ-ଅଗପାଳ ଜିପି ଅଫିସ</t>
+  </si>
+  <si>
+    <t>ନାଉଗାଁ-ଏରଡ଼ା ବାଲିସାହି</t>
+  </si>
+  <si>
+    <t>ନାଉଗାଁ-ଚନ୍ଦ୍ରପୁର</t>
+  </si>
+  <si>
+    <t>ନାଉଗାଁ-ନୂଆପାଟଣା ପୋଲ</t>
+  </si>
+  <si>
+    <t>ନାଉଗାଁ-ଡାବର ଛକ</t>
+  </si>
+  <si>
+    <t>ବିଜୁପଟ୍ଟନାୟକ ଛକ-ତରିକୁନ୍ଦ ଛକ</t>
+  </si>
+  <si>
+    <t>ବିଜୁ ପଟ୍ଟନାୟକ ଛକ-ଜିରା ଛକ</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ- -ଗରାମ (ଇନ୍ଦିରା ଛକ)</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ- କୃଷ୍ଣାନନ୍ଦପୁର ପିଏଚସି ଛକ</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ- ଗୋପାଳପୁର ହାଟ</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ-କୋଷ୍ଟି</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ – ସାଅଁରା ଛକ</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଲ ଡିପୋ- ସିରସ୍ତା ଛକ</t>
+  </si>
+  <si>
+    <t>ବାଲିକୁଦା-ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍)</t>
+  </si>
+  <si>
+    <t>ବିରିଡି- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>ଏରସମା- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>କୁଜଙ୍ଗ- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>ନାଉଗାଁ- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>ରଘୁନାଥପୁର- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>ତିର୍ତ୍ତୋଳ- ଜଗତସିଂହପୁର (ଜଗାଧରି ବସ୍ ଷ୍ଟାଣ୍ଡ)</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ଜଶୋବନ୍ତପୁର କାଠ ପୋଲ-ଆଳିପିଙ୍ଗଲ ବଜାର-ଏକାସୁଧା ଛକ-ପାଟଣି ଗାଁ-ଜୋରାକୁଲା-ସଭାମୁଳ ଉପର ପଳସା ଛକ-କଣ୍ଟିଲୋ ତ୍ରିନାଥ ମନ୍ଦିର-ଗେଲପୁର ବ୍ରିଜ୍-ରୋହିଆ ପାଟଣା ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ଜଗତସିଂହପୁର ଜିଲ୍ଲା ମୁଖ୍ୟାଳୟ-ଏସଭିଏମ କଲେଜ-ଚାରିପୋଲିଆ ଛକ-ପୁନଙ୍ଗ ହାଇସ୍କୁଲ- ଯଁକୋଟି ଜିପି ଅଫିସ ଛକ-କୁଲା ତରତଙ୍ଗ ସ୍କୁଲ ଛକ-ମଣ୍ଡାସାହି ସିଏଚସି</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ଜଗତସିଂହପୁର ଜିଲ୍ଲା ମୁଖ୍ୟାଳୟ-ଶନି ମନ୍ଦିର-  ଗୋପାଳ ଗାଁ ଛକ-କାକୁଡି ଖଣ୍ଡିଆ ଛକ-ସମଙ୍ଗ ଛକ-ବ୍ରାହ୍ମଣ ଖଣ୍ଡ ଛକ-ସାମ ଲହଙ୍ଗା ଗାଁ-ସିଙ୍ଗରପୁର ମେଲଣ ପଡିଆ-ନୂଆପୋଲ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଜଗତସିଂହପୁର ଜିଲ୍ଲା ମୁଖ୍ୟାଳୟ-ପାକନପୁର ଛକ-ଗୁମୁତିପୁର ଛକ-ପୋଥପଡା ଛକ-ସାମନ୍ତରାପୁର ଛକ- ଓଡ଼ିସ ପାଣିଛାତ୍ର ପଡିଆ-ଯୋତ ଛକ-ପୁରଣ ଛକ-ପୁରୁଣା ଗଡ଼-ନଗମଥା ଛକ-ତୁମ୍ବାବାଣଦେଇ ସାହି</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଜଗତସିଂଗପୁର ଜିଲ୍ଲା ମୁଖ୍ୟାଳୟ-ପୁରୋହିତପୁର ଛକ-ନନ୍ଦମଣି ଗଡ଼-ଅଳସୁଧା ଛକ-କୋକିଳପୁର ଛକ-କାନପୁର ଗାଁ ଛକ-ନୀପୁର ଗାଁ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଆମ୍ବଶାଳ ଛକ ମାଛଗାଁ ବଜାର-ଖାଲଗାଁ ମହାବୀର ମନ୍ଦିର ଛକ-ଅପଣ୍ଡରା ହାଟ-ବାଲିପାଟଣା ହାଟ ପାଡ଼ିଆ-ନହରଣା ଛକ-ମରିଚପୁର ବଜାର</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବଡ଼ରୋଡ଼ଙ୍ଗ ଜଗନ୍ନାଥ ମନ୍ଦିର-ବୋରିକିନା ବଜାର-ପାଲଧୁଆଁବନ୍ଧ ବଜାର-ବସନ୍ତ ଛକ-ବ୍ରାହ୍ମଣଡିହି ତେଲି ଛକ-ତେନ୍ତୁଳିବେଲାରି ହାଟ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବ୍ଲକ ଛକ-ଗଇଠପୁର ବଜାର ଛକ-ରାହାଣ ବଜାର-ଦାଗାଁ ଛକ-ଅନନ୍ତପୁର ମେଲଣ ପଡ଼ିଆ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ନାଗପୁର ଜାଗୁଲାଇ ଛକ-କୁଲଉପରା ବଜାର-ଜଏଗାଁ ଛକ-ଅଳିହା ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଭୋଦା ଛକ-କାଳିଓ ବଜାର-ସଂଗ୍ରାମପୁର ଛକ-ଚଅଁରପୁର ବଜାର-ଡେଙ୍ଗାପୋଲ ବଜାର-ଖାଙ୍କରପୁର</t>
+  </si>
+  <si>
+    <t>ଭାୟା-15 ନଂ ପୋଲ-କାନପୁର ଛକ-ଅଢଙ୍ଗା ବଜାର-ଅସିଲୋ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ତହସିଲ ଛକ-ଗୋପାଳପୁର କଲେଜ ଛକ-ମାଧୁରୀ ବଜାର-ଡେଙ୍ଗାପୋଲ ଛକ-ବାଇଗଣୀ ବଜାର-ଜନତାକୋଠି ବଜାର-ତାଣ୍ଡିକୁଳ-ମହାଦେଇ ବ୍ରହ୍ମପୁର-ମୁଳୁଗାଁ ବଜାର-ଦଦରା ହାଟ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଦୋଗାଛିଆ ବଜାର-ବାଲିଆ ଷ୍ଟାଣ୍ଡ-ବାଲିଆ ଷ୍ଟୋର/ଅଣଖିଆ- ସାରସ୍ୱତ ସ୍କୁଲ- ବ୍ରିଜ ଛକ ପାଖ ଅଳକା ହାଇସ୍କୁଲ-ଆଖଣ୍ଡଳମଣି ପାଖ ଅଳକା କଲେଜ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ହାଜିପୁର ଛକ-ହାଜିପୁର ପଞ୍ଚାୟତ ଅଫିସ ଛକ-ଶଙ୍କରି ସାହି ବ୍ରିଜ ଛକ-ମଙ୍ଗୁଳି ପଞ୍ଚାୟତ ଅଫିସ-ଉକୁନ୍ଦରା ହାଟ-ଗାନ୍ଧି ଛକ/ବାଇପଦ-ନଇଲୋ-ବାରଡିଆ ପାଲା ମଣ୍ଡପ/ଗେଲପୁର ନଦୀ ବନ୍ଧ-ପୁରଣ ଜିପି ଅଫିସ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-କଦମ୍ବମୁଳ ଛକ-ତଳପାଟକ-ବାରାହାପୁର-ଓସ୍ତ ଛକ-ଅଢଙ୍ଗ ହାଟ-ଅଢଙ୍ଗ ସେଡିକାଲ ଛକ-ଓଡିଶା ଆଦର୍ଶ ବିଦ୍ୟାଳୟ-ସଢ଼େଇକଣା ଛକ-ଶିବପୁର ମେଡିକାଲ ଛକ-କଣ୍ଟୁଆର</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବିରିଡି ଛକ-ରାଣିପଦା-ଚୁନୁ ପଡ଼ିଆ ଛକ-ଅଲାଣ୍ଡୋ ପଞ୍ଚାୟତ ଅଫିସ-ପତିପୁର- ରେଳ ଷ୍ଟେସନ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-କନ୍ଦରା ପୋଖରୀ ନୂଆଗାଁ-ଆନନ୍ଦ ବଜାର-ଗତନାଥ-ଉତ୍ତର ଶାସନ ପଞ୍ଚାୟତ ଅଫିସ-କନକ ସୁନ୍ଦରୀ ଛକ-ଦୁଲ୍ଲା ଦେବୀ ଛକ-ସାହାବାଦ-ସାଳିଜଙ୍ଗ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଇବିରିସିଙ୍ଗ ଛକ-ପଏଦା ଜିପି ଅଫିସ ଛକ-ପୋଖରିଆପଡ଼ା ଛକ-ଗୋବିନ୍ଦପୁର ଶଷ୍ଢ ଛକ-ଜାନକାଦେଇପୁର ଜିପି ଅଫିସ ଛକ- ଗୋଡ଼ା ହାଇସ୍କୁଲ ଛକ-ଆଉଁରୀ ଛକ-ଗଡ଼ହରିଶପୁର</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଜିରେଇଲୋ ଜିପି ଅଫିସ-ଆମ୍ବିକି ହାଟ ଛକ-ଗଡ଼ବିଷ୍ଣୁପୁର ହାଇସ୍କୁଲ ଛକ-ଖଟିକୋଳଦା ଛକ-ଦୁର୍ଗାପୁର ଛକ-ଓଲରା ହାଟ ଛକ-ପଦ୍ମପୁର ଜିପି ଅଫିସ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଏରସମା ମେଡିକାଲ ଛକ-ଜପ ଜିପି ଅଫିସ ଛକ-ବଲେଇପୁର ଜିପି ଅଫିସ-ପଞ୍ଜାବୀ ଛକ-ବାଲିତୁଠ ଛକ-ବଡ଼କୁଜଙ୍ଗ କୁଞ୍ଜବିହାରି ମନ୍ଦିର ଛକ-ନୂଆଗାଁଛକ-ଗୋବିନ୍ଦପୁର ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଏରସମା ବ୍ଲକ ଛକ-କୋଠି ଛକ-ଅବିରିସିଙ୍ଗ ଛକ-ହାଜିପୁର ଛକ-ସୋମପୁର ଛକ ଚମ୍ପାହାଟ ଛକ-ଘୋଡ଼ାଡିଆ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଏରସମା ବ୍ଲକ ଛକ-ପଲ୍ଲିକଣ୍ଟା ଛକ-ଇରିବିନା ଛକ-ନୂଆଡିହି ଜିପି ଛକ-ମଲ୍ଲିପୁର ମେଡିକାନ ଛକ-କିଆଡିଙ୍ଗିରୀ ଛକ-ଭିତର ଅନ୍ଧାରି ଜିପି ଅଫିସ ଛକ-କନାଗୁଳି ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଷଣ୍ଢପୁର-ଜିଲାନାସି ଜିପି ମୁଖ୍ୟାଳୟ-ତାଳଦଣ୍ଡା-ଚୌଧୁରୀଗଡ଼-ପଥୁରିଆ-ପଙ୍କପାଳ-ଚାନ୍ଦପୁର-ତେରମାଣପୁର-ରାହାମା-ଗୋବର୍ଦ୍ଧନପୁର ଏମସିଏମ-ଖୋସାଲପୁର-ଶାମପୁର ଛକ-ଧବଳେଶ୍ୱର ହାଇସ୍କୁଲ-ସରଲି-ହଂସୁରା-ଧବଳେଶ୍ୱର ହାଇସ୍କୁଲ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବଳରାମପୁର ଗଡ଼-ସନ୍ତରା ଗଡ଼-ହସିନା ଗଡ଼-15 ନଂ ଭୂତମୁଣ୍ଡାଇ-ବରେଇ-ସାଙ୍ଗିଟାଳି-ପିପଳଗଡ଼-ଚକ୍ରଧରପୁର-ପାରାଦୀପଗଡ଼-ନୂଆଗଡ଼ପୋଲ-ଦୋଛକି-ଗେଟ ବଜାର-କାଠଗଡ଼-ପିତାମ୍ବରପୁର-ନରେନ୍ଦ୍ରପୁର-କୋଲଡିଆ-ବିଶ୍ୱାଳି-ନୁଣକୁଆ-କୋଠି-ସିଜୁ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ପାତ୍ର ଛକ-ବିପିନ ବାବୁ ଛକ-ସମାଗୋଳ-ଗୋପିଆକୁଦ ଓ ଗଡ଼ ସାହୁ ବଜାର ଛକ-ମାଲହୁଙ୍କା-ଖରିଗୋଠ-ତାରେଣୀଗଡ଼-ଫତେପୁର-ଜନତା ହାଇସ୍କୁଲ-ବିରବର ସାମନ୍ତ କଲେଜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ଭାୟା-ବାଗେଇ-ଷଣ୍ଢପୁର-ତାଳଦଣ୍ଡା-ଚୌଧୁରୀଗଡ଼-ପଥୁରିଆ-ବଡ଼ପାଳ-ପଙ୍କପାଳ-ଗରେଇ-କୋଠମୁଳା-ଗଭାଡି-ଏକଲା-ଚନ୍ଦାପାଟ ଛକ-ଭ୍ରମରକୋଲ-ଖୁର୍ଦ୍ଧା ସାହି-ପୋତାନଉ ମେଡିକାଲ –ଜନାପାଳ-ତେରମାଣପୁର ଗଡ଼-ବାଲି ସାହି-ନବୋଦୟ ସ୍କୁଲ-ଛୋଟିବାର-ସାଇଲୋ ଓ ପୋଲ-ମିନା ବଜାର-ପୋଡକାନ୍ତି-ଅଢ଼ାଙ୍କୋର-ମଠାସାହି-ଗଉଡ଼ ସାହି-ପଣ୍ଡୁଆ-ପଣ୍ଚୁଆ-ହାତୀକେନା </t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବଗେଇ ଗଡ଼-ଷଣ୍ଢପୁର-ତାଳଦଣ୍ଡା-ଚୌଧୁରୀଗଡ଼-ପଥୁରିଆ-ବଡ଼ପାଳ-ପଙ୍କପାଳ-ଚାନ୍ଦପୁର-ରାହାମା ବଜାର-ତାଳପଦା ଛକ- ଗାଇ ଗୁହାଳ ପୋଲ-ତାଳପଦା ଛକ-ମକର ପଡ଼ିଆ-ଗଙ୍ଗାଧରପୁର-ରାଇଗଣ-ସରଖି-ବଣିତୋ-ଡଗର ପଡ଼ା-ବଣିତୋ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ପାତ୍ର ଛକ-ବିପିନ ବାବୁ ଛକ-ବଡ଼ଙ୍ଗ ମଙ୍ଗଳା ମନ୍ଦିର ଛକ-ବନାଡିଆ-ବଗେଇ ଛକ-ପାନପଲ୍ଲି-କାଞ୍ଜିଆକଣା ଛକ-ବାବୁଘର-ବାଲିଆ-ପାଟପୁର-କରତୋଠା-ତେନ୍ତୁଳିଆ-ରାଣିପଡ଼ା-ବାଓରିଖି-ରେପୁର ବାଲି ପାଟଣା-ପାଇକସ୍ତା-ପହଣା-ଜନାପାଳ-ପଙ୍କପାଳ-ପଥୁରିଆ-ଅଗପାଳ ହାଇସ୍କୁଲ- ପଥୁରିଆ ପିର ଠାକୁର</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ଘୋଡାଁସ-ଦାନ୍ତୁଆଳ-ନାଉଗାଁ ସୁଧାକାନ୍ତି/ପାଲାସାହି ଛକ-ନାଉଗାଁ ଜିପି ଅଫିସ-ବାହାଲିସାହି/ଗଜରାଜପୁର ଜିପି ଅଫିସ-ବେଦୀଦେଉଳ ବଜାର-ଗଳଦାରି</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ନାଉଗାଁ ଗାଁ ଅଲଣା ଜଗନ୍ନାଥ ମନ୍ଦିର-ବଛାଳୋ ଜିପି ଅଫିସ-ନାରିସିମା-ପାଞ୍ଚପା-ରୋହିଆ ହାଇସ୍କୁଲ-ଅନନ୍ତପୁର-କୋରଣିଆ ସ୍କୁଲ-ଅରଖକୁଦ ଯାତ୍ରା ପଡ଼ିଆ-ହରିଶପୁର-ମୁଗେଇ ଛକ-ଚାନ୍ଦ ଖାଁ ପାଟଣା ଶ୍ରୀ ଜଗନ୍ନାଥ କଲେଜ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-କୋକିଢ଼ିଆ –ଚାନ୍ଦପୁର-ତେଣ୍ଟୋଇ-ବନ୍ଧମୁଣ୍ଡା/ଗଙ୍ଗଦା-ତୀରୁଣା ଜିପି-ଦହିପାଳ ଛକ-ଦେଓପଡ଼ା-ଚକୁଳିଆ ପଡ଼ା-କଣ୍ଟୁଣିଆ ହାଟ-ପୋଲିଟେକନିକ କଲେଜ-ମୁଣ୍ଡାଲୋ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଶିଖର ଘାଟ-ସାରେଇକୁଲ-ବୋଦଳ-ଶାଳିଜଙ୍ଗା-ମଠା-ଅଙ୍ଗେଶ୍ୱରପଡ଼ା ହାଇସ୍କୁଲ-ଓସକଣା ଛକ-ଗରେଇ ମଠ-ମହନାପରି</t>
+  </si>
+  <si>
+    <t>ଭାୟା ତହସିଲ ଛକ-ସରକାରୀ ପୋଲିସ ଷ୍ଟେସନ ବିରାଟ କଟକ-ବରାଗୋଲ ଜିପି ଅଫିସ-ବିଶ୍ୱନାଥପୁର ଛକ-ଧନିପୁର ଛକ(ଜିପି ଜାଇଶୋଲ)</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବସନ୍ତ ଛକ-ଧରାଧରପୁର-ବାଇଗୁଡ଼ି ଛକ-ସାଦେଇପୁର-ପଣ୍ଡରା ଛକ-ଅଢ଼ାଇକୁଳ-ରେଢ଼ୁଆ କଲେଜ ଛକ-ରାଢ଼ଙ୍ଗ ଛକ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ଭାୟା-ତିର୍ତ୍ତୋଲ ବସ୍ ଷ୍ଟାଣ୍ଡ-ଥାନାଗଡା ଚାକା (ଜଡତ୍ରିରା ଜିପି) -ମଣିଜଙ୍ଗା-ନୁଆପୋଖରୀ ଛକ, ବୋଧେଇ-ନଳାପୋଲ ଛକ-ଇବ୍ରିସିଂ ଜିପି (ଭାୟା ନାରୁଆ ଛକ) - ପିଏଚସି ନରୁଆ-ଉତ୍ତରେଶ୍ୱରୀ ଠାକୁରାଣୀ ଛକ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ଭାୟା-ତିର୍ତ୍ତୋଲ ମାର୍କେଟ-ପୋସଲ ଛକ / ସାଙ୍ଖେଶ୍ୱର ପାର୍କ ଛକ-  ଦାଇଁଲୋ ବାୟ କଲେଜ ଛକ - ଦାଇଁଲୋ ଜିପି- କିଲିପାଳ ଦିଗବାରେଣି ଛକ (କଣିମୁଳ ଜିପି) -ଇନ୍ଦ୍ରାଣୀ ଛକ (ମଣପୁର) </t>
+  </si>
+  <si>
+    <t>ଭାୟା- ସାରଳା ମନ୍ଦିର-ଡାଲିଆ ଛକ-କଟରା ମେଡିକାଲ ଛକ-ମହିଳୋ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ହଷ୍ଟେଲଗଡା (ତିର୍ତ୍ତୋଲ ଏନ୍ଏଚ୍) -ପିପଳ ମାଧବ-ପଞ୍ଚସଖା ଉଚ୍ଚ ବିଦ୍ୟାଳୟ-ଆବୁଆ ମଠ-ଗୋବିନ୍ଦପୁର ଜିପି ଅଫିସ୍</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ତ୍ରିନାଥ ବଜାର - ତେନ୍ତୁଳିପଡ଼ା ଜିପି - ମୁଳିସିଂହ ସାହାରା ହାଟ ଛକ ନିକଟରେ ସାରଳା ମନ୍ଦିର-ଅବଦୁଲ ରହିମ ଉଚ୍ଚ ବିଦ୍ୟାଳୟ ରସଲ ପୁର-ବିରିଟୋଲ ଜିପି</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ଭାୟା-ତିର୍ତ୍ତୋଲ ଛକ-ପୋରଗଦେଇ-କୋଲର ପିଏଚସି ଛକ- ଆମ୍ବେରୀ ଜିପି-ବ୍ଲାସପୁର ଛକ-ସାମନ୍ତରପୁର ଜିପି- </t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବାଲିକୁଦା କଲେଜ ଛକ-ଡେଙ୍ଗାପୋଲ ବଜାର-ଡିହାସାହି ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ବଳିଆ ଷ୍ଟୋର-ତାରିକୁଣ୍ଡ ବଜାର-ଚାରିପୋଲିଆ ବଜାର-କଲେଜ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଅବିରିସିଙ୍ଗି ଛକ-ତାଣ୍ଡିକୁଳ (ଇଶ୍ୱରେଶ୍ୱର ମନ୍ଦିର)-ତୁଳାଙ୍ଗ(ବୋଲାର ବଜାର)-କତର ବଜାର-ଗାଦିବ୍ରହ୍ମା ବିଦ୍ୟାପିଠ (କାଦୁଅପଡ଼ା-ଡିହାସାହି)</t>
+  </si>
+  <si>
+    <t>ଭାୟା-କୁଜଙ୍ଗ ବଜାର-ତାଳଦଣ୍ଡା-ପଙ୍କପାଣି-ରାହାମ-ତିର୍ତ୍ତୋଳ ବଜାର-ସାରଳା ରୋଡ-ଜୟପୁର ଛକ-ଜଗତସିଂହପୁର ନଗର ନିଗମ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ଅଲଣା ହାଟ (ମହିରା ରୋଡ)-ବାହାଲିଆସାହି ଛକ-ବିଜୁପଟ୍ଟନାୟକ କଲେଜ(ଆଶ୍ରମ ପାଟଣା ଛକ)-ଗଲୁପଡ଼ା ଛକ- ଜଗତସିଂହପୁର ନଗର ନିଗମ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ତାରପୁର ବଜାର-ରେଢ଼ୁଆ ହାଟ-ରାଢ଼ଙ୍ଗବାଡ଼-କେନ୍ଦ୍ରୀୟ ବିଦ୍ୟାଳୟ ଛକ- ଜଗତସିଂହପୁର ନଗର ନିଗମ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା-ସାଦେଇପୁର ଛକ-ପାଲାସୋଲ-ଗାନ୍ଧି ଛକ- ଜଗତସିଂହପୁର ନଗର ନିଗମ ଛକ</t>
+  </si>
+  <si>
+    <t>ଭାୟା- ତିର୍ତ୍ତୋଳ ବଜାର-ସାରଳା ରୋଡ-ଜୟପୁର ଛକ-କେନ୍ଦ୍ରୀୟ ବିଦ୍ୟାଳୟ ଛକ- ଜଗତସିଂହପୁର ନଗର ନିଗମ ଛକ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,7 +779,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -502,34 +787,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,47 +1065,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="169.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="169.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="168" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -850,12 +1113,16 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -863,15 +1130,16 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -879,15 +1147,16 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -895,15 +1164,16 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -911,15 +1181,16 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -927,15 +1198,16 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -943,15 +1215,16 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -959,15 +1232,16 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -975,15 +1249,16 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -991,15 +1266,16 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1007,15 +1283,16 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1023,15 +1300,16 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1039,15 +1317,16 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1055,15 +1334,16 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1071,15 +1351,16 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1087,15 +1368,16 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1103,15 +1385,16 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1119,15 +1402,16 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1135,15 +1419,16 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1151,15 +1436,16 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1167,15 +1453,16 @@
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1183,15 +1470,16 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1199,15 +1487,16 @@
         <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1215,15 +1504,16 @@
         <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1231,15 +1521,16 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1247,15 +1538,16 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1263,15 +1555,16 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1279,15 +1572,16 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1295,15 +1589,16 @@
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1311,15 +1606,16 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1327,15 +1623,16 @@
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1343,15 +1640,16 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1359,15 +1657,16 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1375,15 +1674,16 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1391,15 +1691,16 @@
         <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1407,15 +1708,16 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1423,15 +1725,16 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1439,15 +1742,16 @@
         <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1455,15 +1759,16 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1471,15 +1776,16 @@
         <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1487,15 +1793,16 @@
         <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1503,12 +1810,16 @@
         <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1516,15 +1827,16 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1532,15 +1844,16 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1548,15 +1861,16 @@
         <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1564,15 +1878,16 @@
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1580,15 +1895,16 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1596,12 +1912,13 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
